--- a/genshin/433272873440899626_2020-09-10_14-00-02.xlsx
+++ b/genshin/433272873440899626_2020-09-10_14-00-02.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-12-12 02:43:32</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44177.11356481481</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -618,10 +632,8 @@
           <t>3482988868</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-09-12 11:30:24</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44086.47944444444</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -685,10 +697,8 @@
           <t>3482938010</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-09-12 11:14:41</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44086.46853009259</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -764,10 +774,8 @@
           <t>3482933360</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-09-12 11:14:06</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44086.468125</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -843,10 +851,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-09-12 11:02:14</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44086.45988425926</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -910,10 +916,8 @@
           <t>3482736708</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-09-12 10:09:20</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44086.42314814815</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -989,10 +993,8 @@
           <t>3476599000</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-09-12 09:52:30</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44086.41145833334</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1056,10 +1058,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-09-12 09:29:20</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44086.39537037037</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1127,10 +1127,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-09-12 09:21:08</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44086.38967592592</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1208,10 +1206,8 @@
           <t>3476130041</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-09-12 01:02:03</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44086.04309027778</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1279,10 +1275,8 @@
           <t>3476163635</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-09-12 00:21:08</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44086.01467592592</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1350,10 +1344,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-09-11 22:34:39</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44085.94072916666</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1429,10 +1421,8 @@
           <t>3481135806</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-09-11 21:31:23</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44085.89679398148</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1508,10 +1498,8 @@
           <t>3481140208</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-09-11 21:31:10</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44085.89664351852</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1587,10 +1575,8 @@
           <t>3481121000</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-09-11 21:27:59</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44085.89443287037</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1659,10 +1645,8 @@
           <t>3476599000</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-09-11 21:16:00</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44085.88611111111</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1731,10 +1715,8 @@
           <t>3479809754</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-09-11 20:39:44</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44085.86092592592</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1806,10 +1788,8 @@
           <t>3476159010</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-09-11 20:29:54</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44085.85409722223</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1885,10 +1865,8 @@
           <t>3476130041</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-09-11 20:28:06</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44085.85284722222</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1964,10 +1942,8 @@
           <t>3476130041</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-09-11 20:09:04</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44085.83962962963</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2043,10 +2019,8 @@
           <t>3476130041</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-09-11 19:48:34</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44085.82539351852</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2122,10 +2096,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-09-11 19:41:29</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44085.82047453704</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2197,10 +2169,8 @@
           <t>3476138110</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-09-11 18:53:21</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44085.78704861111</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2264,10 +2234,8 @@
           <t>3476593452</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-09-11 16:40:13</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44085.69459490741</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2335,10 +2303,8 @@
           <t>3476593452</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-09-11 16:31:14</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44085.68835648148</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2406,10 +2372,8 @@
           <t>3476593452</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-09-11 16:26:35</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44085.68512731481</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2477,10 +2441,8 @@
           <t>3476596473</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-09-11 16:25:48</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44085.68458333334</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2548,10 +2510,8 @@
           <t>3476593452</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-09-11 16:19:54</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44085.68048611111</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2619,10 +2579,8 @@
           <t>3479809754</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-09-11 15:35:16</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44085.64949074074</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
@@ -2690,10 +2648,8 @@
           <t>3479814130</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-09-11 15:34:40</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44085.64907407408</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2761,10 +2717,8 @@
           <t>3479815743</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-09-11 15:34:14</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44085.64877314815</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2832,10 +2786,8 @@
           <t>3476596473</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-09-11 15:28:31</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44085.64480324074</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2903,10 +2855,8 @@
           <t>3476364185</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-09-11 15:28:09</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44085.64454861111</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2974,10 +2924,8 @@
           <t>3479787593</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-09-11 15:24:07</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44085.64174768519</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3053,10 +3001,8 @@
           <t>3478374111</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-09-11 15:22:43</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44085.64077546296</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3132,10 +3078,8 @@
           <t>3479774272</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-09-11 15:20:01</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44085.63890046296</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3199,10 +3143,8 @@
           <t>3479769868</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-09-11 15:17:03</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44085.63684027778</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3278,10 +3220,8 @@
           <t>3479775132</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-09-11 15:16:28</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44085.63643518519</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3357,10 +3297,8 @@
           <t>3479572399</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-09-11 13:53:03</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44085.57850694445</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3436,10 +3374,8 @@
           <t>3479545721</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-09-11 13:41:44</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44085.57064814815</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3515,10 +3451,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-09-11 13:23:26</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44085.55793981482</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3586,10 +3520,8 @@
           <t>3476593452</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-09-11 13:18:55</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44085.55480324074</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3657,10 +3589,8 @@
           <t>3476593452</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-09-11 13:10:23</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44085.54887731482</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3728,10 +3658,8 @@
           <t>3477658357</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-09-11 13:04:43</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44085.54494212963</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3799,10 +3727,8 @@
           <t>3479361162</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-09-11 12:44:29</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44085.53089120371</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3872,10 +3798,8 @@
           <t>3479312425</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-09-11 12:32:20</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44085.52245370371</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3943,10 +3867,8 @@
           <t>3478374111</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-09-11 12:06:20</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44085.50439814815</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4010,10 +3932,8 @@
           <t>3477658357</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-09-11 11:32:12</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44085.48069444444</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4089,10 +4009,8 @@
           <t>3477658357</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-09-11 11:21:11</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44085.47304398148</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4160,10 +4078,8 @@
           <t>3476165621</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-09-11 11:20:38</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44085.47266203703</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4231,10 +4147,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-09-11 11:18:28</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44085.47115740741</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4302,10 +4216,8 @@
           <t>3476593452</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-09-11 11:13:10</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44085.46747685185</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4373,10 +4285,8 @@
           <t>3476593452</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-09-11 11:11:41</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44085.46644675926</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4444,10 +4354,8 @@
           <t>3478092404</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-09-11 10:40:05</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44085.44450231481</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4515,10 +4423,8 @@
           <t>3478919429</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-09-11 10:08:42</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44085.42270833333</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4591,10 +4497,8 @@
           <t>3478892347</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-09-11 09:55:42</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44085.41368055555</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4670,10 +4574,8 @@
           <t>3478374111</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-09-11 09:22:04</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44085.39032407408</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4749,10 +4651,8 @@
           <t>3478728322</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-09-11 08:41:43</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44085.36230324074</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4820,10 +4720,8 @@
           <t>3478728322</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-09-11 08:28:49</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44085.35334490741</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4895,10 +4793,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-09-11 07:48:49</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44085.32556712963</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4966,10 +4862,8 @@
           <t>3478374111</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-09-11 07:12:38</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44085.30043981481</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5033,10 +4927,8 @@
           <t>3478407342</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-09-11 01:49:00</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44085.07569444444</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5100,10 +4992,8 @@
           <t>3478369195</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-09-11 01:25:50</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44085.05960648148</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5179,10 +5069,8 @@
           <t>3478374111</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-09-11 01:25:13</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44085.05917824074</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5258,10 +5146,8 @@
           <t>3478207314</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-09-11 00:15:24</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44085.01069444444</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5337,10 +5223,8 @@
           <t>3478163165</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-09-11 00:02:28</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44085.00171296296</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5416,10 +5300,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-09-11 00:00:26</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44085.00030092592</v>
       </c>
       <c r="I68" t="n">
         <v>1</v>
@@ -5487,10 +5369,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-09-10 23:58:54</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44084.99923611111</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5562,10 +5442,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-09-10 23:51:48</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44084.99430555556</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5637,10 +5515,8 @@
           <t>3478092404</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-09-10 23:43:36</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44084.98861111111</v>
       </c>
       <c r="I71" t="n">
         <v>1</v>
@@ -5716,10 +5592,8 @@
           <t>3477811116</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-09-10 22:36:25</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44084.94195601852</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5795,10 +5669,8 @@
           <t>3477356410</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-09-10 22:35:17</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44084.94116898148</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5874,10 +5746,8 @@
           <t>3477658357</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-09-10 22:00:30</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44084.91701388889</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5953,10 +5823,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-09-10 21:20:55</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44084.88952546296</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -6024,10 +5892,8 @@
           <t>3477356410</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-09-10 20:43:09</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44084.86329861111</v>
       </c>
       <c r="I76" t="n">
         <v>2</v>
@@ -6095,10 +5961,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-09-10 20:18:26</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44084.84613425926</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6162,10 +6026,8 @@
           <t>3476999836</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-09-10 19:41:00</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44084.82013888889</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6233,10 +6095,8 @@
           <t>3476999836</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-09-10 19:11:50</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44084.79988425926</v>
       </c>
       <c r="I79" t="n">
         <v>1</v>
@@ -6304,10 +6164,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-09-10 18:44:37</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44084.7809837963</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6375,10 +6233,8 @@
           <t>3476130041</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-09-10 18:40:10</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44084.77789351852</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6446,10 +6302,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-09-10 18:39:39</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44084.77753472222</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6517,10 +6371,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-09-10 18:36:54</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44084.775625</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6592,10 +6444,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-09-10 18:23:19</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44084.76619212963</v>
       </c>
       <c r="I84" t="n">
         <v>1</v>
@@ -6665,10 +6515,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-09-10 18:09:26</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44084.75655092593</v>
       </c>
       <c r="I85" t="n">
         <v>3</v>
@@ -6744,10 +6592,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-09-10 18:08:36</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44084.75597222222</v>
       </c>
       <c r="I86" t="n">
         <v>1</v>
@@ -6823,10 +6669,8 @@
           <t>3476746724</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-09-10 18:01:11</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44084.75082175926</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6894,10 +6738,8 @@
           <t>3476165621</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-09-10 17:51:37</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44084.74417824074</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6973,10 +6815,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-09-10 17:50:42</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44084.74354166666</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7044,10 +6884,8 @@
           <t>3476612808</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-09-10 17:21:09</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44084.72302083333</v>
       </c>
       <c r="I90" t="n">
         <v>1</v>
@@ -7115,10 +6953,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-09-10 17:19:10</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44084.72164351852</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7194,10 +7030,8 @@
           <t>3476599000</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-09-10 17:17:21</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44084.72038194445</v>
       </c>
       <c r="I92" t="n">
         <v>1</v>
@@ -7265,10 +7099,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-09-10 17:16:00</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44084.71944444445</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7340,10 +7172,8 @@
           <t>3476593452</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-09-10 17:15:27</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44084.7190625</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7411,10 +7241,8 @@
           <t>3476596473</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-09-10 17:14:51</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44084.71864583333</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7482,10 +7310,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-09-10 16:55:26</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44084.70516203704</v>
       </c>
       <c r="I96" t="n">
         <v>1</v>
@@ -7553,10 +7379,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-09-10 16:54:17</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44084.70436342592</v>
       </c>
       <c r="I97" t="n">
         <v>4</v>
@@ -7624,10 +7448,8 @@
           <t>3476230845</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-09-10 16:53:04</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44084.70351851852</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7695,10 +7517,8 @@
           <t>3476230845</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-09-10 16:51:46</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44084.70261574074</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7766,10 +7586,8 @@
           <t>3476230845</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-09-10 16:49:23</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44084.70096064815</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7845,10 +7663,8 @@
           <t>3476230845</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-09-10 16:48:04</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44084.7000462963</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7921,10 +7737,8 @@
           <t>3476159010</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-09-10 16:46:12</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44084.69875</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -8000,10 +7814,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-09-10 16:45:49</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44084.6984837963</v>
       </c>
       <c r="I103" t="n">
         <v>1</v>
@@ -8071,10 +7883,8 @@
           <t>3476283208</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-09-10 16:45:39</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44084.69836805556</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8150,10 +7960,8 @@
           <t>3476159010</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-09-10 16:45:20</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44084.69814814815</v>
       </c>
       <c r="I105" t="n">
         <v>2</v>
@@ -8221,10 +8029,8 @@
           <t>3476230845</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-09-10 16:43:32</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44084.69689814815</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8292,10 +8098,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-09-10 16:42:14</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44084.69599537037</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8359,10 +8163,8 @@
           <t>3476230845</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-09-10 16:40:02</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44084.69446759259</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8438,10 +8240,8 @@
           <t>3476500074</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-09-10 16:39:09</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44084.69385416667</v>
       </c>
       <c r="I109" t="n">
         <v>1</v>
@@ -8517,10 +8317,8 @@
           <t>3476493140</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-09-10 16:38:51</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44084.69364583334</v>
       </c>
       <c r="I110" t="n">
         <v>2</v>
@@ -8592,10 +8390,8 @@
           <t>3476159010</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-09-10 16:38:35</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44084.69346064814</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8671,10 +8467,8 @@
           <t>3476364185</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-09-10 16:33:29</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44084.68991898148</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8742,10 +8536,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-09-10 16:26:39</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44084.68517361111</v>
       </c>
       <c r="I113" t="n">
         <v>1</v>
@@ -8809,10 +8601,8 @@
           <t>3476364185</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-09-10 16:23:00</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44084.68263888889</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8880,10 +8670,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-09-10 16:22:21</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44084.6821875</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8956,10 +8744,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-09-10 16:20:03</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44084.68059027778</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -9023,10 +8809,8 @@
           <t>3476165621</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-09-10 16:19:36</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44084.68027777778</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9094,10 +8878,8 @@
           <t>3476230845</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-09-10 16:19:00</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44084.67986111111</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9165,10 +8947,8 @@
           <t>3476130041</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-09-10 16:17:33</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44084.67885416667</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9232,10 +9012,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-09-10 16:16:36</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44084.67819444444</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9307,10 +9085,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-09-10 16:09:01</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44084.67292824074</v>
       </c>
       <c r="I121" t="n">
         <v>1</v>
@@ -9386,10 +9162,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-09-10 15:54:22</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44084.66275462963</v>
       </c>
       <c r="I122" t="n">
         <v>5</v>
@@ -9461,10 +9235,8 @@
           <t>3476212930</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-09-10 15:54:09</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44084.66260416667</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9536,10 +9308,8 @@
           <t>3476364185</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-09-10 15:47:25</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44084.65792824074</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9607,10 +9377,8 @@
           <t>3476165621</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-09-10 15:47:08</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44084.65773148148</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9686,10 +9454,8 @@
           <t>3476346252</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-09-10 15:36:47</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44084.65054398148</v>
       </c>
       <c r="I126" t="n">
         <v>5</v>
@@ -9764,10 +9530,8 @@
           <t>3476341934</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-09-10 15:36:03</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44084.65003472222</v>
       </c>
       <c r="I127" t="n">
         <v>6</v>
@@ -9843,10 +9607,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-09-10 15:35:35</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44084.64971064815</v>
       </c>
       <c r="I128" t="n">
         <v>9</v>
@@ -9918,10 +9680,8 @@
           <t>3476335493</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-09-10 15:29:58</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44084.64581018518</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9998,10 +9758,8 @@
           <t>3476230845</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2020-09-10 15:22:51</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44084.64086805555</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -10077,10 +9835,8 @@
           <t>3476145460</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2020-09-10 15:13:40</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44084.63449074074</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10156,10 +9912,8 @@
           <t>3476283208</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2020-09-10 15:12:11</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44084.63346064815</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10235,10 +9989,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2020-09-10 15:11:53</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44084.63325231482</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10306,10 +10058,8 @@
           <t>3476287215</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2020-09-10 15:11:15</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44084.6328125</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10373,10 +10123,8 @@
           <t>3476290938</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2020-09-10 15:11:01</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44084.63265046296</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10448,10 +10196,8 @@
           <t>3476212930</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2020-09-10 15:10:03</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44084.63197916667</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10527,10 +10273,8 @@
           <t>3476130041</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2020-09-10 15:05:03</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44084.62850694444</v>
       </c>
       <c r="I137" t="n">
         <v>4</v>
@@ -10606,10 +10350,8 @@
           <t>3476130041</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:58:36</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44084.62402777778</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10677,10 +10419,8 @@
           <t>3476251152</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:56:51</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44084.6228125</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10753,10 +10493,8 @@
           <t>3476148993</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:56:35</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44084.62262731481</v>
       </c>
       <c r="I140" t="n">
         <v>2</v>
@@ -10824,10 +10562,8 @@
           <t>3476159374</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:55:10</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44084.62164351852</v>
       </c>
       <c r="I141" t="n">
         <v>1</v>
@@ -10895,10 +10631,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:54:53</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44084.62144675926</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10958,10 +10692,8 @@
           <t>3476239517</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:54:46</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44084.62136574074</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -11033,10 +10765,8 @@
           <t>3476130041</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:54:37</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44084.62126157407</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -11104,10 +10834,8 @@
           <t>3476163896</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:54:33</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44084.62121527778</v>
       </c>
       <c r="I145" t="n">
         <v>1</v>
@@ -11175,10 +10903,8 @@
           <t>3476165621</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:53:39</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44084.62059027778</v>
       </c>
       <c r="I146" t="n">
         <v>1</v>
@@ -11246,10 +10972,8 @@
           <t>3476230845</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:52:58</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44084.62011574074</v>
       </c>
       <c r="I147" t="n">
         <v>1</v>
@@ -11317,10 +11041,8 @@
           <t>3476145968</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:51:52</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44084.61935185185</v>
       </c>
       <c r="I148" t="n">
         <v>5</v>
@@ -11388,10 +11110,8 @@
           <t>3476163635</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:51:21</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44084.61899305556</v>
       </c>
       <c r="I149" t="n">
         <v>2</v>
@@ -11459,10 +11179,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:50:33</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44084.6184375</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11539,10 +11257,8 @@
           <t>3476222498</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:45:24</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44084.61486111111</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11606,10 +11322,8 @@
           <t>3476230845</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:45:18</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44084.61479166667</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11685,10 +11399,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:44:12</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44084.61402777778</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11756,10 +11468,8 @@
           <t>3476217760</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:41:24</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44084.61208333333</v>
       </c>
       <c r="I154" t="n">
         <v>4</v>
@@ -11823,10 +11533,8 @@
           <t>3476130041</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:40:52</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44084.61171296296</v>
       </c>
       <c r="I155" t="n">
         <v>4</v>
@@ -11902,10 +11610,8 @@
           <t>3476212930</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:40:12</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44084.61125</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11981,10 +11687,8 @@
           <t>3476216238</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:39:31</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44084.61077546296</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -12057,10 +11761,8 @@
           <t>3476130041</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:38:06</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44084.60979166667</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -12136,10 +11838,8 @@
           <t>3476145460</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:36:14</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44084.60849537037</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12211,10 +11911,8 @@
           <t>3476202729</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:35:00</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44084.60763888889</v>
       </c>
       <c r="I160" t="n">
         <v>4</v>
@@ -12286,10 +11984,8 @@
           <t>3476130041</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:34:34</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44084.60733796296</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12357,10 +12053,8 @@
           <t>3476198579</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:34:33</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44084.60732638889</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12432,10 +12126,8 @@
           <t>3476159010</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:34:23</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44084.60721064815</v>
       </c>
       <c r="I163" t="n">
         <v>1</v>
@@ -12511,10 +12203,8 @@
           <t>3476198407</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:34:19</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44084.60716435185</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12586,10 +12276,8 @@
           <t>3476130041</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:32:27</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44084.60586805556</v>
       </c>
       <c r="I165" t="n">
         <v>12</v>
@@ -12665,10 +12353,8 @@
           <t>3476200198</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:31:43</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44084.6053587963</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12740,10 +12426,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:31:15</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44084.60503472222</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12811,10 +12495,8 @@
           <t>3476196043</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:31:13</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44084.60501157407</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12890,10 +12572,8 @@
           <t>3476130041</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:28:47</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44084.60332175926</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12961,10 +12641,8 @@
           <t>3476130041</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:28:43</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44084.60327546296</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -13036,10 +12714,8 @@
           <t>3476130041</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:27:10</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44084.60219907408</v>
       </c>
       <c r="I171" t="n">
         <v>5</v>
@@ -13111,10 +12787,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:25:54</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44084.60131944445</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13174,10 +12848,8 @@
           <t>3476130041</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:25:52</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44084.6012962963</v>
       </c>
       <c r="I173" t="n">
         <v>2</v>
@@ -13245,10 +12917,8 @@
           <t>3476168877</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:22:24</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44084.59888888889</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13324,10 +12994,8 @@
           <t>3476130041</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:22:19</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44084.59883101852</v>
       </c>
       <c r="I175" t="n">
         <v>30</v>
@@ -13399,10 +13067,8 @@
           <t>3476163896</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:20:39</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44084.59767361111</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13478,10 +13144,8 @@
           <t>3476163635</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:20:18</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44084.59743055556</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13557,10 +13221,8 @@
           <t>3476130041</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:20:04</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44084.59726851852</v>
       </c>
       <c r="I178" t="n">
         <v>3</v>
@@ -13628,10 +13290,8 @@
           <t>3476159010</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:19:00</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44084.59652777778</v>
       </c>
       <c r="I179" t="n">
         <v>6</v>
@@ -13699,10 +13359,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:18:31</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44084.59619212963</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13766,10 +13424,8 @@
           <t>3476165621</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:18:25</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44084.59612268519</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13841,10 +13497,8 @@
           <t>3476159374</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:18:14</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44084.59599537037</v>
       </c>
       <c r="I182" t="n">
         <v>2</v>
@@ -13908,10 +13562,8 @@
           <t>3476159010</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:17:48</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44084.59569444445</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13983,10 +13635,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:17:27</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44084.59545138889</v>
       </c>
       <c r="I184" t="n">
         <v>1</v>
@@ -14054,10 +13704,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:16:51</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44084.59503472222</v>
       </c>
       <c r="I185" t="n">
         <v>99</v>
@@ -14129,10 +13777,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:15:58</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44084.59442129629</v>
       </c>
       <c r="I186" t="n">
         <v>1</v>
@@ -14200,10 +13846,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:15:28</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44084.59407407408</v>
       </c>
       <c r="I187" t="n">
         <v>1</v>
@@ -14263,10 +13907,8 @@
           <t>3476148993</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:14:33</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44084.5934375</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14338,10 +13980,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:13:42</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44084.59284722222</v>
       </c>
       <c r="I189" t="n">
         <v>2</v>
@@ -14413,10 +14053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:13:40</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44084.59282407408</v>
       </c>
       <c r="I190" t="n">
         <v>1</v>
@@ -14480,10 +14118,8 @@
           <t>3476150784</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:12:34</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44084.59206018518</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14551,10 +14187,8 @@
           <t>3476144296</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:12:10</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44084.59178240741</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14630,10 +14264,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:12:08</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44084.59175925926</v>
       </c>
       <c r="I193" t="n">
         <v>1</v>
@@ -14705,10 +14337,8 @@
           <t>3476130500</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:11:30</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44084.59131944444</v>
       </c>
       <c r="I194" t="n">
         <v>6</v>
@@ -14776,10 +14406,8 @@
           <t>3476145968</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:10:52</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44084.59087962963</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14855,10 +14483,8 @@
           <t>3476145724</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:10:36</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44084.59069444444</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14930,10 +14556,8 @@
           <t>3476139208</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:10:36</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44084.59069444444</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -15005,10 +14629,8 @@
           <t>3476130041</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:10:23</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44084.59054398148</v>
       </c>
       <c r="I198" t="n">
         <v>89</v>
@@ -15084,10 +14706,8 @@
           <t>3476145460</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:10:18</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44084.59048611111</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -15155,10 +14775,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:09:46</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44084.59011574074</v>
       </c>
       <c r="I200" t="n">
         <v>89</v>
@@ -15226,10 +14844,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:09:38</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44084.59002314815</v>
       </c>
       <c r="I201" t="n">
         <v>6</v>
@@ -15301,10 +14917,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:09:20</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44084.58981481481</v>
       </c>
       <c r="I202" t="n">
         <v>58</v>
@@ -15373,10 +14987,8 @@
           <t>3476138110</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:09:17</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44084.5897800926</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15444,10 +15056,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:08:19</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44084.5891087963</v>
       </c>
       <c r="I204" t="n">
         <v>31</v>
@@ -15519,10 +15129,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:08:04</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44084.58893518519</v>
       </c>
       <c r="I205" t="n">
         <v>1</v>
@@ -15594,10 +15202,8 @@
           <t>3476130500</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:07:52</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44084.5887962963</v>
       </c>
       <c r="I206" t="n">
         <v>5</v>
@@ -15669,10 +15275,8 @@
           <t>3476130500</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:06:04</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44084.58754629629</v>
       </c>
       <c r="I207" t="n">
         <v>1</v>
@@ -15748,10 +15352,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:05:52</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44084.58740740741</v>
       </c>
       <c r="I208" t="n">
         <v>1</v>
@@ -15819,10 +15421,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:05:44</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44084.58731481482</v>
       </c>
       <c r="I209" t="n">
         <v>15</v>
@@ -15898,10 +15498,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:04:49</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44084.58667824074</v>
       </c>
       <c r="I210" t="n">
         <v>1</v>
@@ -15965,10 +15563,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:04:33</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44084.58649305555</v>
       </c>
       <c r="I211" t="n">
         <v>1</v>
@@ -16044,10 +15640,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:04:32</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44084.58648148148</v>
       </c>
       <c r="I212" t="n">
         <v>1</v>
@@ -16119,10 +15713,8 @@
           <t>3476130500</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:04:21</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44084.58635416667</v>
       </c>
       <c r="I213" t="n">
         <v>78</v>
@@ -16190,10 +15782,8 @@
           <t>3476130041</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:03:49</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44084.5859837963</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16269,10 +15859,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:03:02</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44084.58543981481</v>
       </c>
       <c r="I215" t="n">
         <v>1</v>
@@ -16336,10 +15924,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:02:23</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44084.58498842592</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16411,10 +15997,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:02:21</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44084.58496527778</v>
       </c>
       <c r="I217" t="n">
         <v>1</v>
@@ -16474,10 +16058,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:01:43</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44084.58452546296</v>
       </c>
       <c r="I218" t="n">
         <v>190</v>
@@ -16547,10 +16129,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:01:43</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44084.58452546296</v>
       </c>
       <c r="I219" t="n">
         <v>61</v>
@@ -16618,10 +16198,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:01:23</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44084.58429398148</v>
       </c>
       <c r="I220" t="n">
         <v>1</v>
@@ -16689,10 +16267,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:00:48</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44084.58388888889</v>
       </c>
       <c r="I221" t="n">
         <v>1</v>
@@ -16756,10 +16332,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:00:39</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44084.58378472222</v>
       </c>
       <c r="I222" t="n">
         <v>1</v>
@@ -16827,10 +16401,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:00:27</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44084.58364583334</v>
       </c>
       <c r="I223" t="n">
         <v>1</v>
@@ -16898,10 +16470,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:00:23</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44084.58359953704</v>
       </c>
       <c r="I224" t="n">
         <v>1</v>
@@ -16961,10 +16531,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2020-09-10 14:00:21</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44084.58357638889</v>
       </c>
       <c r="I225" t="n">
         <v>1</v>
